--- a/backend/exports/users.xlsx
+++ b/backend/exports/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -89,30 +89,6 @@
   </si>
   <si>
     <t>Surendiran556345@gmail.com</t>
-  </si>
-  <si>
-    <t>"67a5c32b9513d88dc0b97c08"</t>
-  </si>
-  <si>
-    <t>Sivakumar45@gmail.com</t>
-  </si>
-  <si>
-    <t>"67a5c32b9513d88dc0b97c09"</t>
-  </si>
-  <si>
-    <t>Saainath</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Backend Developer</t>
-  </si>
-  <si>
-    <t>Saainath45@gmail.com</t>
-  </si>
-  <si>
-    <t>Sivakasi</t>
   </si>
 </sst>
 </file>
@@ -490,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -625,70 +601,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25569.000406666666</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>9944558866</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25569.000433148147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>7904659008</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
